--- a/xlsx_data/current_quarter_classification.xlsx
+++ b/xlsx_data/current_quarter_classification.xlsx
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vlxd</t>
+          <t>xd</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vật liệu xây dựng</t>
+          <t>Xây dựng</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vlxd</t>
+          <t>xd</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vật liệu xây dựng</t>
+          <t>Xây dựng</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vlxd</t>
+          <t>xd</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vật liệu xây dựng</t>
+          <t>Xây dựng</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vlxd</t>
+          <t>xd</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vật liệu xây dựng</t>
+          <t>Xây dựng</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2423,17 +2423,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>cong_nghiep</t>
+          <t>dulich_dv</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>hsB</t>
+          <t>hsD</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Công nghiệp</t>
+          <t>Du lịch và DV</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vlxd</t>
+          <t>xd</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Vật liệu xây dựng</t>
+          <t>Xây dựng</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>vlxd</t>
+          <t>xd</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Vật liệu xây dựng</t>
+          <t>Xây dựng</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>vlxd</t>
+          <t>xd</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Vật liệu xây dựng</t>
+          <t>Xây dựng</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>vlxd</t>
+          <t>xd</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Vật liệu xây dựng</t>
+          <t>Xây dựng</t>
         </is>
       </c>
       <c r="G180" t="inlineStr"/>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>vlxd</t>
+          <t>xd</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -11019,7 +11019,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Vật liệu xây dựng</t>
+          <t>Xây dựng</t>
         </is>
       </c>
       <c r="G270" t="inlineStr"/>
